--- a/4-Te-dhenat-per-kataster/regjistri/Koordinatat.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/Koordinatat.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Kodi</t>
+    <t xml:space="preserve">Kodi </t>
   </si>
 </sst>
 </file>
@@ -56,16 +56,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,29 +119,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -456,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P18"/>
+  <dimension ref="B2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G10"/>
+      <selection activeCell="G11" sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,213 +457,193 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8">
-        <v>7512521.75</v>
-      </c>
-      <c r="D3" s="8">
-        <v>4692044.6610000003</v>
-      </c>
-      <c r="E3" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F3" s="7">
-        <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8">
-        <v>7512520.0049999999</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4692045.9840000002</v>
-      </c>
-      <c r="E4" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F4" s="7">
-        <v>40</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8">
-        <v>7512521.432</v>
-      </c>
-      <c r="D5" s="8">
-        <v>4692047.8080000002</v>
-      </c>
-      <c r="E5" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F5" s="7">
-        <v>40</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7512515.6399999997</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4692034.6979999999</v>
-      </c>
-      <c r="E6" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F6" s="7">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>7512504.835</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4692044.5269999998</v>
-      </c>
-      <c r="E7" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F7" s="7">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7">
-        <v>67</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7512503.5549999997</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4692042.801</v>
-      </c>
-      <c r="E8" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F8" s="7">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7">
-        <v>90</v>
-      </c>
-      <c r="C9" s="8">
-        <v>7512503.6030000001</v>
-      </c>
-      <c r="D9" s="8">
-        <v>4692045.5130000003</v>
-      </c>
-      <c r="E9" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F9" s="7">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7">
-        <v>91</v>
-      </c>
-      <c r="C10" s="8">
-        <v>7512511.3190000001</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4692055.47</v>
-      </c>
-      <c r="E10" s="8">
-        <v>620.03</v>
-      </c>
-      <c r="F10" s="7">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7511877.2290000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4692127.6189999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>616.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7511876.9670000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4692124.6979999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>616.56600000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7511876.7089999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4692121.88</v>
+      </c>
+      <c r="E5" s="3">
+        <v>616.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7511876.0319999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4692114.5669999998</v>
+      </c>
+      <c r="E6" s="3">
+        <v>618.98800000000006</v>
+      </c>
+      <c r="F6" s="2">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7511886.2280000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4692123.8839999996</v>
+      </c>
+      <c r="E7" s="3">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F7" s="2">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7511876.426</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4692118.7889999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>616.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7511886.4900000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4692126.8049999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7511885.2929999996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4692113.68</v>
+      </c>
+      <c r="E10" s="3">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
